--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R69c26c4222c645e1"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rac244299836d4a50"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R8bd203502e514662"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3b2872542ee5416d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R39b00fce64ec4e1b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R2fb40f0c2c3d4247"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9b3ee4f112554a0b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R011d7db210dd4a23"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf1469309609e4442"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R16b2dfe6e5624035"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rbf05594f31a04d46"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4d34b671544948d5"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfdf998c37b19480b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4c28d3554178444a"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3b2872542ee5416d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R39b00fce64ec4e1b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R2fb40f0c2c3d4247"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R38b264110dc3455d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Red26f15b871f488b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R9b53645a5e204358"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R011d7db210dd4a23"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f6eeb44a3db46b3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R16b2dfe6e5624035"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9839040783f94c5b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4d34b671544948d5"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9b789c6cad254a36"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4c28d3554178444a"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R71e468072e5f4016"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R38b264110dc3455d"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Red26f15b871f488b"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R9b53645a5e204358"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3ff173aa8ecb4c8f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rbb2b1410329447ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Re2b2054da6bd4f15"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1f6eeb44a3db46b3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R048342e6aa1b482a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9839040783f94c5b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R33e6f225bd384e4f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9b789c6cad254a36"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R03f50e48425d460c"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R71e468072e5f4016"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R447768d4ed7f4534"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R3ff173aa8ecb4c8f"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rbb2b1410329447ba"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Re2b2054da6bd4f15"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R4cc6cd5d609c4775"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Ra207ff7b99024288"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R319672362c3a4b9b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R048342e6aa1b482a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R100c8366ac7e43b7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R33e6f225bd384e4f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R068f6fa31f8d4554"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R03f50e48425d460c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R15d75c4afed44c41"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R447768d4ed7f4534"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7944b0ea078c4cdd"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R4cc6cd5d609c4775"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Ra207ff7b99024288"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R319672362c3a4b9b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R0ecd81559b2a40bb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R9d2241e8c66b402e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rca63a47688654bb6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R100c8366ac7e43b7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd542f4a0057140fc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R068f6fa31f8d4554"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R98d291ec98ae49d0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R15d75c4afed44c41"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6d885127825b47d8"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7944b0ea078c4cdd"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R38d57613bbf349bb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R0ecd81559b2a40bb"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R9d2241e8c66b402e"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Rca63a47688654bb6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf200f082cd214eb0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R7aef8a889ae34e69"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R24f0b9def6ca4dc1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd542f4a0057140fc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R16268d6312c34e8d"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R98d291ec98ae49d0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3fd75079f94f46e3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R6d885127825b47d8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re077d6ffd64d40e3"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R38d57613bbf349bb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2eba6e1d441471f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf200f082cd214eb0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R7aef8a889ae34e69"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R24f0b9def6ca4dc1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb0f1275c21a84444"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R442be06e5a6e4e45"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R5299294d9cc9405e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R16268d6312c34e8d"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75b52f52a2704ffc"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R3fd75079f94f46e3"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R127f715437b84c4e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re077d6ffd64d40e3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R66d6605d08eb4475"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Re2eba6e1d441471f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R36704ad357364508"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rb0f1275c21a84444"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R442be06e5a6e4e45"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R5299294d9cc9405e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R28aa0d66ebc546d0"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6f2b27fc1c2f4899"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Ra49ea7ec2e1f452d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R75b52f52a2704ffc"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1bd4560f80a24502"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R127f715437b84c4e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35529ffffcb94473"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R66d6605d08eb4475"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b771f8703fc4165"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R36704ad357364508"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a7de2e2a5cd46a0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R28aa0d66ebc546d0"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R6f2b27fc1c2f4899"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Ra49ea7ec2e1f452d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R9702216d1e924867"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R8fe0f7197d784379"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Re57a2e3b73cb49cb"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R1bd4560f80a24502"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R652be5004cea479e"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35529ffffcb94473"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7310bf5628f430b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2b771f8703fc4165"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb96c54e750394b08"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1a7de2e2a5cd46a0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0f3ce2c73d4249f8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R9702216d1e924867"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R8fe0f7197d784379"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Re57a2e3b73cb49cb"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcd087ac129684081"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R8ad60737319a4150"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R63c36c1d6b3c40ee"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R652be5004cea479e"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a95150e7d404db0"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re7310bf5628f430b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9eecfd75619a45df"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb96c54e750394b08"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41ad24275ecb4a81"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0f3ce2c73d4249f8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R39fc5b9707f548f0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rcd087ac129684081"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R8ad60737319a4150"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R63c36c1d6b3c40ee"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7b2bcac912014adc"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R21b3e5f3a1364199"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R20bf4aad93eb4853"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -32,17 +32,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Aptos Narrow"/>
+      <x:name val="Arial"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a95150e7d404db0"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36822a17fc0f4813"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9eecfd75619a45df"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rda18113e231d41af"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41ad24275ecb4a81"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11cc05a5401e486f"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R39fc5b9707f548f0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde83ce7d0bdf425d"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R7b2bcac912014adc"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R21b3e5f3a1364199"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R20bf4aad93eb4853"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R89838f3b38364d82"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rc0dad542b364499a"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R5d5f64117b064152"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -32,17 +32,17 @@
       <x:b/>
       <x:sz val="12"/>
       <x:color rgb="FFFFFFFF"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
     <x:font>
       <x:sz val="12"/>
       <x:color rgb="FF000000"/>
-      <x:name val="Arial"/>
+      <x:name val="Aptos Narrow"/>
     </x:font>
   </x:fonts>
   <x:fills count="3">
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36822a17fc0f4813"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7a49dec8b4ee40b1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rda18113e231d41af"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rebcd26d5f40647a1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R11cc05a5401e486f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R49551a114f71408e"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rde83ce7d0bdf425d"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R93f833eb7486418f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/064_JsonToWorkbookMultipleCharts.xlsx
@@ -5,9 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="R89838f3b38364d82"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="Rc0dad542b364499a"/>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="R5d5f64117b064152"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Orders" sheetId="1" r:id="Rf5b817afe3c74a61"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Status Distribution" sheetId="2" r:id="R65298405da57496c"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Revenue Trend" sheetId="3" r:id="Ra2590c510b044fda"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -269,7 +269,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7a49dec8b4ee40b1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R8eb2b934ba9548e2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -304,7 +304,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rebcd26d5f40647a1"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rebf06900068f44e1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3871,13 +3871,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R49551a114f71408e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R52b7cb5f9fba42cc"/>
 </x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetData/>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R93f833eb7486418f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra84387d790694ec2"/>
 </x:worksheet>
 </file>